--- a/data/validation+testing/tissue_block_fit_v2.xlsx
+++ b/data/validation+testing/tissue_block_fit_v2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abueckle\Documents\GitHub\hra-cell-type-populations-supporting-information\data\validation+testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{60367723-938C-4600-A607-2AEFDD538EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE2A96C-26CC-4D2A-8EF3-4568D929454E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="19090" yWindow="-10880" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tissue_block_fit_v2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -598,7 +611,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1141,7 +1154,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1486,11 +1529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12252,7 +12295,7 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C92" t="s">
@@ -19461,7 +19504,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:AM152">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19471,17 +19514,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F152">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E152">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
-    <hyperlink ref="L1" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B92" r:id="rId4" xr:uid="{8365D9DD-9A31-47F7-A020-95BD87A25E0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
